--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01069146</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mild Therapeutic Hypothermia During Severe Sepsis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00349661</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Influence Of Omeprazole On The Anti-Platelet Action Of Clopidogrel Associated To Aspirin: Double-Blind Randomized Trial Against Placebo</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00295672</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oral Vinorelbine and Cisplatin and Concurrent Radiotherapy After Induction Chemotherapy With Cisplatin-docetaxel in Patients With Locally Advanced Non-small-cell Lung Cancer. A Multicenter Phase II Trial</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>VINCR</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01078714</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>BUMEA</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -692,36 +717,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00740844</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>CIREA1</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -740,36 +770,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00740935</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Impact of Systematic Infants Vaccination Against Rotavirus on Gastroenteritis Hospitalization: a Prospective Study in Brest District, France.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>IVANHOE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -788,36 +823,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01216488</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>COMBAX</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -836,36 +876,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01545011</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Effects of Inspiratory Muscle Training Combined With a Pulmonary Rehabilitation Program Versus a Program of Pulmonary Rehabilitation Alone on Dyspnea: a Randomized Trial</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -884,36 +929,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00740948</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Tolerance and Efficacy of Rituximab in Sjogren's Disease</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>TEARS</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -932,36 +982,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02109263</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Breastfeeding Versus Saccharose for Prevention of the Procedural Pain in the Newborn</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ACTISUCROSE</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -980,36 +1035,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01759199</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>STEPPER</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1028,36 +1088,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00560664</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Phase 3 Study Comparison of Autologous Chondrocyte Implantation Versus Mosaicoplasty</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Cartipatch</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1076,36 +1141,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01028092</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>EVEROLD</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1124,36 +1194,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01855256</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>H²O</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1172,36 +1247,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT02027181</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>FreeO2-Hypox</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1220,36 +1300,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01713842</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>TENOR</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1268,36 +1353,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00964275</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>MVTEP</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1316,36 +1406,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01964248</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Evaluation of Local Anesthesia Before Arterial Puncture for Blood Gas Analysis Randomized, Control Placebo Study</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>GAEL</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1364,36 +1459,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01694732</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>SAVE</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1412,36 +1512,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT00740987</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>CIREA2</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1460,32 +1565,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02302313</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Pilot Study of the ANI (Analgesia Nociception Index) Validity on the Nociception Assessment in Healthy Volunteers in State of Hypnosis, Compared to Painful Numerical Verbal Scale (EVN).</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1504,36 +1614,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02891928</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>EROD</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1552,36 +1667,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT00740883</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>PADIS EP</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1600,36 +1720,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02137694</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PapU-APV</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1648,36 +1773,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02074813</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>EMI II</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1696,36 +1826,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02546401</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>BOLUS</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1744,36 +1879,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02414711</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>HSCL25</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1792,36 +1932,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01267981</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>PREPINTEST</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1840,36 +1985,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT03081403</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>SENSISKIN</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1888,36 +2038,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02035293</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>PEP</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1936,36 +2091,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT03116373</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Fix-IOT</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1984,36 +2144,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02403596</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>ESPER</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2032,36 +2197,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02736006</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>DACODEC</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2080,36 +2250,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01685580</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>préOVNI</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2128,36 +2303,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02302183</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Infant-Free02</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2176,36 +2356,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02563210</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>ARC36</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2224,36 +2409,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT03218176</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Tourniquets Type Combat Application Tourniquet (CAT): Vascular Suffering According to the Proximal or Distal Location, Simple or Staggered. Study to Upper and Lower Limbs</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>GARROTS</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2272,36 +2462,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT00740493</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>PADIS TVP</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2320,36 +2515,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03209947</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ULnar Nerve ECHographic Observation (ULNECHO)</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>ULNECHO</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2368,36 +2568,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT03128125</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>MOHPI</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2416,36 +2621,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT03279003</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>SENSILED</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2464,36 +2674,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02672384</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>CP-ICU</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2512,36 +2727,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02546830</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>FreeO2PostOp</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2560,32 +2780,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02652520</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2604,36 +2829,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT03117699</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>PADH2</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2652,36 +2882,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT04096183</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>CamOpt</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2700,36 +2935,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03069560</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>C-SIAM</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2748,36 +2988,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT03701971</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>PRURI-MUSIC</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2796,36 +3041,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03610386</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>DA-TRPM8</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2844,36 +3094,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02656667</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>ESNM</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2892,36 +3147,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT03154736</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa: An Implementation Research</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>SPICES_PHASE_1</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2940,36 +3200,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03068598</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Connected Sleep Recording Device for Suicidal Patients, Acceptability Study - Suicide Sleep Monitoring (Ssleem)</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>SSLEEM</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2988,36 +3253,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03555812</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>MIPEN</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3036,36 +3306,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03260738</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>RCOOL</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3084,36 +3359,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03440294</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>WINDSURF</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3132,36 +3412,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT03579849</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>PASEP</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3180,36 +3465,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02379806</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>SYMPTOMS</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3228,32 +3518,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02908217</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Safety and Efficacy of tocilizuMAb Versus Placebo in Polymyalgia rHeumatica With glucocORticoid dEpendence SEMAPHORE</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3272,36 +3567,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT03914105</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>DOUMU1</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3320,36 +3620,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT04090632</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>EPOLTEST</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3368,36 +3673,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02112136</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>GeneQuest</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3416,36 +3726,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02486965</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Impact of a Specific Training Program on the Neuromodulation of Pain in Fibromyalgia Subjects</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>DOUFISPORT</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3464,36 +3779,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT03160365</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>FOCUS</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3512,36 +3832,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03930966</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>DIStress-AG</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3560,36 +3885,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT04017871</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>HABIT-ILE</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3608,36 +3938,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03675061</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>PARTO-MAP</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3656,36 +3991,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT04362800</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>MOOV</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3704,36 +4044,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT04206826</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>PREDELFI</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3752,36 +4097,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT02008552</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>MEDIAGENE</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3800,36 +4150,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT04341753</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>FORMES</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3848,36 +4203,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03477344</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>EXACTUM</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3896,36 +4256,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT04736511</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>NEURIBIO</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3944,36 +4309,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT04180436</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Pharmacokinetics and Pharmacodynamics of rivAroxaban After Bariatric Surgery and in mORBid Obesity</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>ABSORB</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3992,36 +4362,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02410304</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>BCD</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4040,36 +4415,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT01848639</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>ALdosterone Antagonist Chronic HEModialysis Interventional Survival Trial (ALCHEMIST), Phase III b</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>ALCHEMIST</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4088,36 +4468,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT03801304</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>VinMetAtezo</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4136,36 +4521,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03886064</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Spices_phase_2</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4184,36 +4574,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04727879</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>BAOBAB</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4232,36 +4627,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT04506125</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>LIBERTY1</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4280,36 +4680,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03285438</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>REduced Dose Versus Full-dose of Direct Oral Anticoagulant After uNprOvoked Venous thromboEmbolism. The RENOVE Open-label, Randomized, Controlled Trial.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>RENOVE</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4328,36 +4733,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT04181710</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Evaluation of a Marine OXYgen Carrier for Organ Preservation : a Multicenter Randomized Study Evaluating the Efficacy of HEMO2life® Versus Standard of Care in Renal Transplantation</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>OXYOP 2</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4376,36 +4786,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT04027101</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>BACHELOR</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4424,36 +4839,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT03461900</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Guided Fluid-balance Optimization With Mini-fluid chALlenge During Septic Shock: A Multicenter, Stepped Wedge Cluster Randomized Trial</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>GOAL</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4472,36 +4892,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04609956</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>VIDAMO</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4520,36 +4945,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT04848194</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>TRIP</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4568,36 +4998,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT04179539</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>PETEP</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4616,36 +5051,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT05775562</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>SPIDD</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4664,36 +5104,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04253275</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>IBIS-CT</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -4712,32 +5157,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT00744900</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
         <is>
           <t>A Phase II Trial With Pemetrexed Plus Cisplatin as First Line Chemotherapy for Advanced Non - Small Cell Lung Cancer (NSCLC) Patients With Measurable Asymptomatic Brain Metastasis (GFPC 07-01/METAL).</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>GFPC 07-01</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01069146</t>

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -76,234 +76,234 @@
     <t>NCT00295672</t>
   </si>
   <si>
+    <t>NCT00740844</t>
+  </si>
+  <si>
     <t>NCT01078714</t>
   </si>
   <si>
-    <t>NCT00740844</t>
+    <t>NCT01216488</t>
   </si>
   <si>
     <t>NCT00740935</t>
   </si>
   <si>
-    <t>NCT01216488</t>
-  </si>
-  <si>
     <t>NCT01545011</t>
   </si>
   <si>
+    <t>NCT02109263</t>
+  </si>
+  <si>
     <t>NCT00740948</t>
   </si>
   <si>
-    <t>NCT02109263</t>
-  </si>
-  <si>
     <t>NCT01759199</t>
   </si>
   <si>
     <t>NCT00560664</t>
   </si>
   <si>
+    <t>NCT01855256</t>
+  </si>
+  <si>
+    <t>NCT02027181</t>
+  </si>
+  <si>
+    <t>NCT00964275</t>
+  </si>
+  <si>
+    <t>NCT01713842</t>
+  </si>
+  <si>
     <t>NCT01028092</t>
   </si>
   <si>
-    <t>NCT01855256</t>
-  </si>
-  <si>
-    <t>NCT02027181</t>
-  </si>
-  <si>
-    <t>NCT01713842</t>
-  </si>
-  <si>
-    <t>NCT00964275</t>
+    <t>NCT01694732</t>
+  </si>
+  <si>
+    <t>NCT00740987</t>
   </si>
   <si>
     <t>NCT01964248</t>
   </si>
   <si>
-    <t>NCT01694732</t>
-  </si>
-  <si>
-    <t>NCT00740987</t>
-  </si>
-  <si>
     <t>NCT02302313</t>
   </si>
   <si>
+    <t>NCT00740883</t>
+  </si>
+  <si>
+    <t>NCT02074813</t>
+  </si>
+  <si>
+    <t>NCT02414711</t>
+  </si>
+  <si>
+    <t>NCT02546401</t>
+  </si>
+  <si>
+    <t>NCT02137694</t>
+  </si>
+  <si>
+    <t>NCT01267981</t>
+  </si>
+  <si>
     <t>NCT02891928</t>
   </si>
   <si>
-    <t>NCT00740883</t>
-  </si>
-  <si>
-    <t>NCT02137694</t>
-  </si>
-  <si>
-    <t>NCT02074813</t>
-  </si>
-  <si>
-    <t>NCT02546401</t>
-  </si>
-  <si>
-    <t>NCT02414711</t>
-  </si>
-  <si>
-    <t>NCT01267981</t>
+    <t>NCT02035293</t>
+  </si>
+  <si>
+    <t>NCT02736006</t>
+  </si>
+  <si>
+    <t>NCT02563210</t>
   </si>
   <si>
     <t>NCT03081403</t>
   </si>
   <si>
-    <t>NCT02035293</t>
+    <t>NCT01685580</t>
+  </si>
+  <si>
+    <t>NCT00740493</t>
+  </si>
+  <si>
+    <t>NCT02302183</t>
+  </si>
+  <si>
+    <t>NCT02403596</t>
+  </si>
+  <si>
+    <t>NCT03218176</t>
   </si>
   <si>
     <t>NCT03116373</t>
   </si>
   <si>
-    <t>NCT02403596</t>
-  </si>
-  <si>
-    <t>NCT02736006</t>
-  </si>
-  <si>
-    <t>NCT01685580</t>
-  </si>
-  <si>
-    <t>NCT02302183</t>
-  </si>
-  <si>
-    <t>NCT02563210</t>
-  </si>
-  <si>
-    <t>NCT03218176</t>
-  </si>
-  <si>
-    <t>NCT00740493</t>
+    <t>NCT02546830</t>
+  </si>
+  <si>
+    <t>NCT02652520</t>
+  </si>
+  <si>
+    <t>NCT02672384</t>
+  </si>
+  <si>
+    <t>NCT03279003</t>
+  </si>
+  <si>
+    <t>NCT03117699</t>
+  </si>
+  <si>
+    <t>NCT03128125</t>
   </si>
   <si>
     <t>NCT03209947</t>
   </si>
   <si>
-    <t>NCT03128125</t>
-  </si>
-  <si>
-    <t>NCT03279003</t>
-  </si>
-  <si>
-    <t>NCT02672384</t>
-  </si>
-  <si>
-    <t>NCT02546830</t>
-  </si>
-  <si>
-    <t>NCT02652520</t>
-  </si>
-  <si>
-    <t>NCT03117699</t>
+    <t>NCT03260738</t>
+  </si>
+  <si>
+    <t>NCT03154736</t>
+  </si>
+  <si>
+    <t>NCT02656667</t>
+  </si>
+  <si>
+    <t>NCT03440294</t>
+  </si>
+  <si>
+    <t>NCT03610386</t>
+  </si>
+  <si>
+    <t>NCT03069560</t>
   </si>
   <si>
     <t>NCT04096183</t>
   </si>
   <si>
-    <t>NCT03069560</t>
-  </si>
-  <si>
     <t>NCT03701971</t>
   </si>
   <si>
-    <t>NCT03610386</t>
-  </si>
-  <si>
-    <t>NCT02656667</t>
-  </si>
-  <si>
-    <t>NCT03154736</t>
-  </si>
-  <si>
     <t>NCT03068598</t>
   </si>
   <si>
+    <t>NCT03579849</t>
+  </si>
+  <si>
     <t>NCT03555812</t>
   </si>
   <si>
-    <t>NCT03260738</t>
-  </si>
-  <si>
-    <t>NCT03440294</t>
-  </si>
-  <si>
-    <t>NCT03579849</t>
+    <t>NCT02112136</t>
   </si>
   <si>
     <t>NCT02379806</t>
   </si>
   <si>
+    <t>NCT03914105</t>
+  </si>
+  <si>
     <t>NCT02908217</t>
   </si>
   <si>
-    <t>NCT03914105</t>
-  </si>
-  <si>
     <t>NCT04090632</t>
   </si>
   <si>
-    <t>NCT02112136</t>
+    <t>NCT03675061</t>
+  </si>
+  <si>
+    <t>NCT04736511</t>
+  </si>
+  <si>
+    <t>NCT04362800</t>
+  </si>
+  <si>
+    <t>NCT03160365</t>
   </si>
   <si>
     <t>NCT02486965</t>
   </si>
   <si>
-    <t>NCT03160365</t>
+    <t>NCT04206826</t>
   </si>
   <si>
     <t>NCT03930966</t>
   </si>
   <si>
+    <t>NCT02008552</t>
+  </si>
+  <si>
+    <t>NCT04341753</t>
+  </si>
+  <si>
     <t>NCT04017871</t>
   </si>
   <si>
-    <t>NCT03675061</t>
-  </si>
-  <si>
-    <t>NCT04362800</t>
-  </si>
-  <si>
-    <t>NCT04206826</t>
-  </si>
-  <si>
-    <t>NCT02008552</t>
-  </si>
-  <si>
-    <t>NCT04341753</t>
-  </si>
-  <si>
     <t>NCT03477344</t>
   </si>
   <si>
-    <t>NCT04736511</t>
+    <t>NCT04727879</t>
   </si>
   <si>
     <t>NCT04180436</t>
   </si>
   <si>
+    <t>NCT01848639</t>
+  </si>
+  <si>
+    <t>NCT03886064</t>
+  </si>
+  <si>
+    <t>NCT04506125</t>
+  </si>
+  <si>
+    <t>NCT03801304</t>
+  </si>
+  <si>
     <t>NCT02410304</t>
   </si>
   <si>
-    <t>NCT01848639</t>
-  </si>
-  <si>
-    <t>NCT03801304</t>
-  </si>
-  <si>
-    <t>NCT03886064</t>
-  </si>
-  <si>
-    <t>NCT04727879</t>
-  </si>
-  <si>
-    <t>NCT04506125</t>
-  </si>
-  <si>
     <t>NCT03285438</t>
   </si>
   <si>
@@ -313,24 +313,24 @@
     <t>NCT04027101</t>
   </si>
   <si>
+    <t>NCT04609956</t>
+  </si>
+  <si>
     <t>NCT03461900</t>
   </si>
   <si>
-    <t>NCT04609956</t>
+    <t>NCT04253275</t>
+  </si>
+  <si>
+    <t>NCT04179539</t>
+  </si>
+  <si>
+    <t>NCT05775562</t>
   </si>
   <si>
     <t>NCT04848194</t>
   </si>
   <si>
-    <t>NCT04179539</t>
-  </si>
-  <si>
-    <t>NCT05775562</t>
-  </si>
-  <si>
-    <t>NCT04253275</t>
-  </si>
-  <si>
     <t>NCT00744900</t>
   </si>
   <si>
@@ -394,234 +394,234 @@
     <t>Oral Vinorelbine and Cisplatin and Concurrent Radiotherapy After Induction Chemotherapy With Cisplatin-docetaxel in Patients With Locally Advanced Non-small-cell Lung Cancer. A Multicenter Phase II Trial</t>
   </si>
   <si>
+    <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
+  </si>
+  <si>
     <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
   </si>
   <si>
-    <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
+    <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
   </si>
   <si>
     <t>Impact of Systematic Infants Vaccination Against Rotavirus on Gastroenteritis Hospitalization: a Prospective Study in Brest District, France.</t>
   </si>
   <si>
-    <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
-  </si>
-  <si>
     <t>Effects of Inspiratory Muscle Training Combined With a Pulmonary Rehabilitation Program Versus a Program of Pulmonary Rehabilitation Alone on Dyspnea: a Randomized Trial</t>
   </si>
   <si>
+    <t>Breastfeeding Versus Saccharose for Prevention of the Procedural Pain in the Newborn</t>
+  </si>
+  <si>
     <t>Tolerance and Efficacy of Rituximab in Sjogren's Disease</t>
   </si>
   <si>
-    <t>Breastfeeding Versus Saccharose for Prevention of the Procedural Pain in the Newborn</t>
-  </si>
-  <si>
     <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
   </si>
   <si>
     <t>Phase 3 Study Comparison of Autologous Chondrocyte Implantation Versus Mosaicoplasty</t>
   </si>
   <si>
+    <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
+  </si>
+  <si>
+    <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
+  </si>
+  <si>
+    <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
+  </si>
+  <si>
+    <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
+  </si>
+  <si>
     <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
   </si>
   <si>
-    <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
-  </si>
-  <si>
-    <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
-  </si>
-  <si>
-    <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
-  </si>
-  <si>
-    <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
+    <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
   </si>
   <si>
     <t>Evaluation of Local Anesthesia Before Arterial Puncture for Blood Gas Analysis Randomized, Control Placebo Study</t>
   </si>
   <si>
-    <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
-  </si>
-  <si>
     <t>Pilot Study of the ANI (Analgesia Nociception Index) Validity on the Nociception Assessment in Healthy Volunteers in State of Hypnosis, Compared to Painful Numerical Verbal Scale (EVN).</t>
   </si>
   <si>
+    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
+  </si>
+  <si>
+    <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
+  </si>
+  <si>
+    <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
+  </si>
+  <si>
+    <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
+  </si>
+  <si>
+    <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
+  </si>
+  <si>
     <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
   </si>
   <si>
-    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
-  </si>
-  <si>
-    <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
-  </si>
-  <si>
-    <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
-  </si>
-  <si>
-    <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
-  </si>
-  <si>
-    <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
+    <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
+  </si>
+  <si>
+    <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
+  </si>
+  <si>
+    <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
   </si>
   <si>
     <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
   </si>
   <si>
-    <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
+    <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
+  </si>
+  <si>
+    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
+  </si>
+  <si>
+    <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
+  </si>
+  <si>
+    <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
+  </si>
+  <si>
+    <t>Tourniquets Type Combat Application Tourniquet (CAT): Vascular Suffering According to the Proximal or Distal Location, Simple or Staggered. Study to Upper and Lower Limbs</t>
   </si>
   <si>
     <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
   </si>
   <si>
-    <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
-  </si>
-  <si>
-    <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
-  </si>
-  <si>
-    <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
-  </si>
-  <si>
-    <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
-  </si>
-  <si>
-    <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
-  </si>
-  <si>
-    <t>Tourniquets Type Combat Application Tourniquet (CAT): Vascular Suffering According to the Proximal or Distal Location, Simple or Staggered. Study to Upper and Lower Limbs</t>
-  </si>
-  <si>
-    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
+    <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
+  </si>
+  <si>
+    <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
+  </si>
+  <si>
+    <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
+  </si>
+  <si>
+    <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
+  </si>
+  <si>
+    <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
+  </si>
+  <si>
+    <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
   </si>
   <si>
     <t>ULnar Nerve ECHographic Observation (ULNECHO)</t>
   </si>
   <si>
-    <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
-  </si>
-  <si>
-    <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
-  </si>
-  <si>
-    <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
-  </si>
-  <si>
-    <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
-  </si>
-  <si>
-    <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
-  </si>
-  <si>
-    <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
+    <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
+  </si>
+  <si>
+    <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa: An Implementation Research</t>
+  </si>
+  <si>
+    <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
+  </si>
+  <si>
+    <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
+  </si>
+  <si>
+    <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
+  </si>
+  <si>
+    <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
   </si>
   <si>
     <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
   </si>
   <si>
-    <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
-  </si>
-  <si>
     <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
   </si>
   <si>
-    <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
-  </si>
-  <si>
-    <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
-  </si>
-  <si>
-    <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa: An Implementation Research</t>
-  </si>
-  <si>
     <t>Connected Sleep Recording Device for Suicidal Patients, Acceptability Study - Suicide Sleep Monitoring (Ssleem)</t>
   </si>
   <si>
+    <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
+  </si>
+  <si>
     <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
   </si>
   <si>
-    <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
-  </si>
-  <si>
-    <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
-  </si>
-  <si>
-    <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
+    <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
   </si>
   <si>
     <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
   </si>
   <si>
+    <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
+  </si>
+  <si>
     <t>Safety and Efficacy of tocilizuMAb Versus Placebo in Polymyalgia rHeumatica With glucocORticoid dEpendence SEMAPHORE</t>
   </si>
   <si>
-    <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
-  </si>
-  <si>
     <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
   </si>
   <si>
-    <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
+    <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
+  </si>
+  <si>
+    <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
+  </si>
+  <si>
+    <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
   </si>
   <si>
     <t>Impact of a Specific Training Program on the Neuromodulation of Pain in Fibromyalgia Subjects</t>
   </si>
   <si>
-    <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
+    <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
   </si>
   <si>
     <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
   </si>
   <si>
+    <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
+  </si>
+  <si>
+    <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
+  </si>
+  <si>
     <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
   </si>
   <si>
-    <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
-  </si>
-  <si>
-    <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
-  </si>
-  <si>
-    <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
-  </si>
-  <si>
-    <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
-  </si>
-  <si>
     <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
   </si>
   <si>
-    <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
+    <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
   </si>
   <si>
     <t>Pharmacokinetics and Pharmacodynamics of rivAroxaban After Bariatric Surgery and in mORBid Obesity</t>
   </si>
   <si>
+    <t>ALdosterone Antagonist Chronic HEModialysis Interventional Survival Trial (ALCHEMIST), Phase III b</t>
+  </si>
+  <si>
+    <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
+  </si>
+  <si>
+    <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
+  </si>
+  <si>
+    <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
+  </si>
+  <si>
     <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
   </si>
   <si>
-    <t>ALdosterone Antagonist Chronic HEModialysis Interventional Survival Trial (ALCHEMIST), Phase III b</t>
-  </si>
-  <si>
-    <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
-  </si>
-  <si>
-    <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
-  </si>
-  <si>
-    <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
-  </si>
-  <si>
-    <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
-  </si>
-  <si>
     <t>REduced Dose Versus Full-dose of Direct Oral Anticoagulant After uNprOvoked Venous thromboEmbolism. The RENOVE Open-label, Randomized, Controlled Trial.</t>
   </si>
   <si>
@@ -631,181 +631,184 @@
     <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
   </si>
   <si>
+    <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
+  </si>
+  <si>
     <t>Guided Fluid-balance Optimization With Mini-fluid chALlenge During Septic Shock: A Multicenter, Stepped Wedge Cluster Randomized Trial</t>
   </si>
   <si>
-    <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
+    <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
+  </si>
+  <si>
+    <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
+  </si>
+  <si>
+    <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
   </si>
   <si>
     <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
   </si>
   <si>
-    <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
-  </si>
-  <si>
-    <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
-  </si>
-  <si>
-    <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
-  </si>
-  <si>
     <t>A Phase II Trial With Pemetrexed Plus Cisplatin as First Line Chemotherapy for Advanced Non - Small Cell Lung Cancer (NSCLC) Patients With Measurable Asymptomatic Brain Metastasis (GFPC 07-01/METAL).</t>
   </si>
   <si>
     <t>VINCR</t>
   </si>
   <si>
+    <t>CIREA1</t>
+  </si>
+  <si>
     <t>BUMEA</t>
   </si>
   <si>
-    <t>CIREA1</t>
+    <t>COMBAX</t>
   </si>
   <si>
     <t>IVANHOE</t>
   </si>
   <si>
-    <t>COMBAX</t>
-  </si>
-  <si>
     <t>IMT</t>
   </si>
   <si>
+    <t>ACTISUCROSE</t>
+  </si>
+  <si>
     <t>TEARS</t>
   </si>
   <si>
-    <t>ACTISUCROSE</t>
-  </si>
-  <si>
     <t>STEPPER</t>
   </si>
   <si>
     <t>Cartipatch</t>
   </si>
   <si>
+    <t>H²O</t>
+  </si>
+  <si>
+    <t>FreeO2-Hypox</t>
+  </si>
+  <si>
+    <t>MVTEP</t>
+  </si>
+  <si>
+    <t>TENOR</t>
+  </si>
+  <si>
     <t>EVEROLD</t>
   </si>
   <si>
-    <t>H²O</t>
-  </si>
-  <si>
-    <t>FreeO2-Hypox</t>
-  </si>
-  <si>
-    <t>TENOR</t>
-  </si>
-  <si>
-    <t>MVTEP</t>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>CIREA2</t>
   </si>
   <si>
     <t>GAEL</t>
   </si>
   <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>CIREA2</t>
+    <t>PADIS EP</t>
+  </si>
+  <si>
+    <t>EMI II</t>
+  </si>
+  <si>
+    <t>HSCL25</t>
+  </si>
+  <si>
+    <t>BOLUS</t>
+  </si>
+  <si>
+    <t>PapU-APV</t>
+  </si>
+  <si>
+    <t>PREPINTEST</t>
   </si>
   <si>
     <t>EROD</t>
   </si>
   <si>
-    <t>PADIS EP</t>
-  </si>
-  <si>
-    <t>PapU-APV</t>
-  </si>
-  <si>
-    <t>EMI II</t>
-  </si>
-  <si>
-    <t>BOLUS</t>
-  </si>
-  <si>
-    <t>HSCL25</t>
-  </si>
-  <si>
-    <t>PREPINTEST</t>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>DACODEC</t>
+  </si>
+  <si>
+    <t>ARC36</t>
   </si>
   <si>
     <t>SENSISKIN</t>
   </si>
   <si>
-    <t>PEP</t>
+    <t>préOVNI</t>
+  </si>
+  <si>
+    <t>PADIS TVP</t>
+  </si>
+  <si>
+    <t>Infant-Free02</t>
+  </si>
+  <si>
+    <t>ESPER</t>
+  </si>
+  <si>
+    <t>GARROTS</t>
   </si>
   <si>
     <t>Fix-IOT</t>
   </si>
   <si>
-    <t>ESPER</t>
-  </si>
-  <si>
-    <t>DACODEC</t>
-  </si>
-  <si>
-    <t>préOVNI</t>
-  </si>
-  <si>
-    <t>Infant-Free02</t>
-  </si>
-  <si>
-    <t>ARC36</t>
-  </si>
-  <si>
-    <t>GARROTS</t>
-  </si>
-  <si>
-    <t>PADIS TVP</t>
+    <t>FreeO2PostOp</t>
+  </si>
+  <si>
+    <t>CP-ICU</t>
+  </si>
+  <si>
+    <t>SENSILED</t>
+  </si>
+  <si>
+    <t>PADH2</t>
+  </si>
+  <si>
+    <t>MOHPI</t>
   </si>
   <si>
     <t>ULNECHO</t>
   </si>
   <si>
-    <t>MOHPI</t>
-  </si>
-  <si>
-    <t>SENSILED</t>
-  </si>
-  <si>
-    <t>CP-ICU</t>
-  </si>
-  <si>
-    <t>FreeO2PostOp</t>
-  </si>
-  <si>
-    <t>PADH2</t>
+    <t>RCOOL</t>
+  </si>
+  <si>
+    <t>SPICES_PHASE_1</t>
+  </si>
+  <si>
+    <t>ESNM</t>
+  </si>
+  <si>
+    <t>WINDSURF</t>
+  </si>
+  <si>
+    <t>DA-TRPM8</t>
+  </si>
+  <si>
+    <t>C-SIAM</t>
   </si>
   <si>
     <t>CamOpt</t>
   </si>
   <si>
-    <t>C-SIAM</t>
-  </si>
-  <si>
     <t>PRURI-MUSIC</t>
   </si>
   <si>
-    <t>DA-TRPM8</t>
-  </si>
-  <si>
-    <t>ESNM</t>
-  </si>
-  <si>
-    <t>SPICES_PHASE_1</t>
-  </si>
-  <si>
     <t>SSLEEM</t>
   </si>
   <si>
+    <t>PASEP</t>
+  </si>
+  <si>
     <t>MIPEN</t>
   </si>
   <si>
-    <t>RCOOL</t>
-  </si>
-  <si>
-    <t>WINDSURF</t>
-  </si>
-  <si>
-    <t>PASEP</t>
+    <t>GeneQuest</t>
   </si>
   <si>
     <t>SYMPTOMS</t>
@@ -817,63 +820,60 @@
     <t>EPOLTEST</t>
   </si>
   <si>
-    <t>GeneQuest</t>
+    <t>PARTO-MAP</t>
+  </si>
+  <si>
+    <t>NEURIBIO</t>
+  </si>
+  <si>
+    <t>MOOV</t>
+  </si>
+  <si>
+    <t>FOCUS</t>
   </si>
   <si>
     <t>DOUFISPORT</t>
   </si>
   <si>
-    <t>FOCUS</t>
+    <t>PREDELFI</t>
   </si>
   <si>
     <t>DIStress-AG</t>
   </si>
   <si>
+    <t>MEDIAGENE</t>
+  </si>
+  <si>
+    <t>FORMES</t>
+  </si>
+  <si>
     <t>HABIT-ILE</t>
   </si>
   <si>
-    <t>PARTO-MAP</t>
-  </si>
-  <si>
-    <t>MOOV</t>
-  </si>
-  <si>
-    <t>PREDELFI</t>
-  </si>
-  <si>
-    <t>MEDIAGENE</t>
-  </si>
-  <si>
-    <t>FORMES</t>
-  </si>
-  <si>
     <t>EXACTUM</t>
   </si>
   <si>
-    <t>NEURIBIO</t>
+    <t>BAOBAB</t>
   </si>
   <si>
     <t>ABSORB</t>
   </si>
   <si>
+    <t>ALCHEMIST</t>
+  </si>
+  <si>
+    <t>Spices_phase_2</t>
+  </si>
+  <si>
+    <t>LIBERTY1</t>
+  </si>
+  <si>
+    <t>VinMetAtezo</t>
+  </si>
+  <si>
     <t>BCD</t>
   </si>
   <si>
-    <t>ALCHEMIST</t>
-  </si>
-  <si>
-    <t>VinMetAtezo</t>
-  </si>
-  <si>
-    <t>Spices_phase_2</t>
-  </si>
-  <si>
-    <t>BAOBAB</t>
-  </si>
-  <si>
-    <t>LIBERTY1</t>
-  </si>
-  <si>
     <t>RENOVE</t>
   </si>
   <si>
@@ -883,22 +883,22 @@
     <t>BACHELOR</t>
   </si>
   <si>
+    <t>VIDAMO</t>
+  </si>
+  <si>
     <t>GOAL</t>
   </si>
   <si>
-    <t>VIDAMO</t>
+    <t>IBIS-CT</t>
+  </si>
+  <si>
+    <t>PETEP</t>
+  </si>
+  <si>
+    <t>SPIDD</t>
   </si>
   <si>
     <t>TRIP</t>
-  </si>
-  <si>
-    <t>PETEP</t>
-  </si>
-  <si>
-    <t>SPIDD</t>
-  </si>
-  <si>
-    <t>IBIS-CT</t>
   </si>
   <si>
     <t>GFPC 07-01</t>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1401,15 +1401,15 @@
         <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1424,15 +1424,15 @@
         <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1447,15 +1447,15 @@
         <v>215</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1470,7 +1470,7 @@
         <v>216</v>
       </c>
       <c r="I8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1498,10 +1498,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1516,15 +1516,15 @@
         <v>218</v>
       </c>
       <c r="I10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1539,7 +1539,7 @@
         <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1613,10 +1613,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1631,7 +1631,7 @@
         <v>223</v>
       </c>
       <c r="I15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1654,7 +1654,7 @@
         <v>224</v>
       </c>
       <c r="I16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1682,10 +1682,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1700,7 +1700,7 @@
         <v>226</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1728,10 +1728,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1746,15 +1746,15 @@
         <v>228</v>
       </c>
       <c r="I20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1769,7 +1769,7 @@
         <v>229</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1794,10 +1794,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1812,15 +1812,15 @@
         <v>230</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1835,7 +1835,7 @@
         <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1863,10 +1863,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1881,7 +1881,7 @@
         <v>233</v>
       </c>
       <c r="I26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1904,15 +1904,15 @@
         <v>234</v>
       </c>
       <c r="I27" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1927,15 +1927,15 @@
         <v>235</v>
       </c>
       <c r="I28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1950,7 +1950,7 @@
         <v>236</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1973,7 +1973,7 @@
         <v>237</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2001,10 +2001,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2042,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2065,15 +2065,15 @@
         <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -2088,7 +2088,7 @@
         <v>242</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2116,10 +2116,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -2134,7 +2134,7 @@
         <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2162,10 +2162,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2180,15 +2180,15 @@
         <v>246</v>
       </c>
       <c r="I39" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -2203,7 +2203,7 @@
         <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2222,11 +2222,8 @@
       <c r="G41" t="s">
         <v>162</v>
       </c>
-      <c r="H41" t="s">
-        <v>248</v>
-      </c>
       <c r="I41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2246,10 +2243,10 @@
         <v>163</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2269,18 +2266,18 @@
         <v>164</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -2292,7 +2289,7 @@
         <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
         <v>298</v>
@@ -2314,8 +2311,11 @@
       <c r="G45" t="s">
         <v>166</v>
       </c>
+      <c r="H45" t="s">
+        <v>251</v>
+      </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2338,15 +2338,15 @@
         <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2361,7 +2361,7 @@
         <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2384,15 +2384,15 @@
         <v>254</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -2407,7 +2407,7 @@
         <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2430,7 +2430,7 @@
         <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2453,7 +2453,7 @@
         <v>257</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2476,15 +2476,15 @@
         <v>258</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -2499,15 +2499,15 @@
         <v>259</v>
       </c>
       <c r="I53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -2591,15 +2591,15 @@
         <v>263</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -2614,15 +2614,15 @@
         <v>264</v>
       </c>
       <c r="I58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
@@ -2633,6 +2633,9 @@
       <c r="G59" t="s">
         <v>180</v>
       </c>
+      <c r="H59" t="s">
+        <v>265</v>
+      </c>
       <c r="I59" t="s">
         <v>297</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I60" t="s">
         <v>296</v>
@@ -2662,10 +2665,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -2676,19 +2679,16 @@
       <c r="G61" t="s">
         <v>182</v>
       </c>
-      <c r="H61" t="s">
-        <v>266</v>
-      </c>
       <c r="I61" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -2703,15 +2703,15 @@
         <v>267</v>
       </c>
       <c r="I62" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
@@ -2749,7 +2749,7 @@
         <v>269</v>
       </c>
       <c r="I64" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2772,15 +2772,15 @@
         <v>270</v>
       </c>
       <c r="I65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
@@ -2795,15 +2795,15 @@
         <v>271</v>
       </c>
       <c r="I66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -2841,7 +2841,7 @@
         <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2864,7 +2864,7 @@
         <v>274</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2933,15 +2933,15 @@
         <v>277</v>
       </c>
       <c r="I72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
@@ -2956,7 +2956,7 @@
         <v>278</v>
       </c>
       <c r="I73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2979,7 +2979,7 @@
         <v>279</v>
       </c>
       <c r="I74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3002,7 +3002,7 @@
         <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3048,7 +3048,7 @@
         <v>282</v>
       </c>
       <c r="I77" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
@@ -3094,15 +3094,15 @@
         <v>284</v>
       </c>
       <c r="I79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
@@ -3117,7 +3117,7 @@
         <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3255,7 +3255,7 @@
         <v>291</v>
       </c>
       <c r="I86" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3324,7 +3324,7 @@
         <v>294</v>
       </c>
       <c r="I89" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:9">

--- a/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage2/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="329">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01069146</t>
@@ -76,15 +76,15 @@
     <t>NCT00295672</t>
   </si>
   <si>
+    <t>NCT01216488</t>
+  </si>
+  <si>
+    <t>NCT01078714</t>
+  </si>
+  <si>
     <t>NCT00740844</t>
   </si>
   <si>
-    <t>NCT01078714</t>
-  </si>
-  <si>
-    <t>NCT01216488</t>
-  </si>
-  <si>
     <t>NCT00740935</t>
   </si>
   <si>
@@ -94,198 +94,219 @@
     <t>NCT02109263</t>
   </si>
   <si>
+    <t>NCT01759199</t>
+  </si>
+  <si>
     <t>NCT00740948</t>
   </si>
   <si>
-    <t>NCT01759199</t>
-  </si>
-  <si>
     <t>NCT00560664</t>
   </si>
   <si>
+    <t>NCT02027181</t>
+  </si>
+  <si>
+    <t>NCT00964275</t>
+  </si>
+  <si>
     <t>NCT01855256</t>
   </si>
   <si>
-    <t>NCT02027181</t>
-  </si>
-  <si>
-    <t>NCT00964275</t>
+    <t>NCT01028092</t>
   </si>
   <si>
     <t>NCT01713842</t>
   </si>
   <si>
-    <t>NCT01028092</t>
-  </si>
-  <si>
     <t>NCT01694732</t>
   </si>
   <si>
+    <t>NCT02302313</t>
+  </si>
+  <si>
     <t>NCT00740987</t>
   </si>
   <si>
     <t>NCT01964248</t>
   </si>
   <si>
-    <t>NCT02302313</t>
+    <t>NCT01267981</t>
+  </si>
+  <si>
+    <t>NCT02074813</t>
+  </si>
+  <si>
+    <t>NCT02546401</t>
+  </si>
+  <si>
+    <t>NCT02137694</t>
+  </si>
+  <si>
+    <t>NCT02414711</t>
+  </si>
+  <si>
+    <t>NCT02891928</t>
   </si>
   <si>
     <t>NCT00740883</t>
   </si>
   <si>
-    <t>NCT02074813</t>
-  </si>
-  <si>
-    <t>NCT02414711</t>
-  </si>
-  <si>
-    <t>NCT02546401</t>
-  </si>
-  <si>
-    <t>NCT02137694</t>
-  </si>
-  <si>
-    <t>NCT01267981</t>
-  </si>
-  <si>
-    <t>NCT02891928</t>
-  </si>
-  <si>
     <t>NCT02035293</t>
   </si>
   <si>
+    <t>NCT00740493</t>
+  </si>
+  <si>
+    <t>NCT01685580</t>
+  </si>
+  <si>
+    <t>NCT02302183</t>
+  </si>
+  <si>
     <t>NCT02736006</t>
   </si>
   <si>
+    <t>NCT03081403</t>
+  </si>
+  <si>
+    <t>NCT02403596</t>
+  </si>
+  <si>
     <t>NCT02563210</t>
   </si>
   <si>
-    <t>NCT03081403</t>
-  </si>
-  <si>
-    <t>NCT01685580</t>
-  </si>
-  <si>
-    <t>NCT00740493</t>
-  </si>
-  <si>
-    <t>NCT02302183</t>
-  </si>
-  <si>
-    <t>NCT02403596</t>
+    <t>NCT01383512</t>
+  </si>
+  <si>
+    <t>NCT03116373</t>
   </si>
   <si>
     <t>NCT03218176</t>
   </si>
   <si>
-    <t>NCT03116373</t>
+    <t>NCT02652520</t>
+  </si>
+  <si>
+    <t>NCT03128125</t>
+  </si>
+  <si>
+    <t>NCT02672384</t>
+  </si>
+  <si>
+    <t>NCT03279003</t>
   </si>
   <si>
     <t>NCT02546830</t>
   </si>
   <si>
-    <t>NCT02652520</t>
-  </si>
-  <si>
-    <t>NCT02672384</t>
-  </si>
-  <si>
-    <t>NCT03279003</t>
-  </si>
-  <si>
     <t>NCT03117699</t>
   </si>
   <si>
-    <t>NCT03128125</t>
-  </si>
-  <si>
     <t>NCT03209947</t>
   </si>
   <si>
+    <t>NCT02302300</t>
+  </si>
+  <si>
+    <t>NCT03701971</t>
+  </si>
+  <si>
+    <t>NCT03555812</t>
+  </si>
+  <si>
+    <t>NCT03069560</t>
+  </si>
+  <si>
+    <t>NCT02106949</t>
+  </si>
+  <si>
+    <t>NCT02656667</t>
+  </si>
+  <si>
+    <t>NCT04096183</t>
+  </si>
+  <si>
+    <t>NCT03440294</t>
+  </si>
+  <si>
+    <t>NCT03610386</t>
+  </si>
+  <si>
+    <t>NCT03579849</t>
+  </si>
+  <si>
+    <t>NCT03068598</t>
+  </si>
+  <si>
     <t>NCT03260738</t>
   </si>
   <si>
     <t>NCT03154736</t>
   </si>
   <si>
-    <t>NCT02656667</t>
-  </si>
-  <si>
-    <t>NCT03440294</t>
-  </si>
-  <si>
-    <t>NCT03610386</t>
-  </si>
-  <si>
-    <t>NCT03069560</t>
-  </si>
-  <si>
-    <t>NCT04096183</t>
-  </si>
-  <si>
-    <t>NCT03701971</t>
-  </si>
-  <si>
-    <t>NCT03068598</t>
-  </si>
-  <si>
-    <t>NCT03579849</t>
-  </si>
-  <si>
-    <t>NCT03555812</t>
+    <t>NCT02379806</t>
+  </si>
+  <si>
+    <t>NCT04090632</t>
+  </si>
+  <si>
+    <t>NCT03914105</t>
   </si>
   <si>
     <t>NCT02112136</t>
   </si>
   <si>
-    <t>NCT02379806</t>
-  </si>
-  <si>
-    <t>NCT03914105</t>
-  </si>
-  <si>
     <t>NCT02908217</t>
   </si>
   <si>
-    <t>NCT04090632</t>
-  </si>
-  <si>
     <t>NCT03675061</t>
   </si>
   <si>
+    <t>NCT04206826</t>
+  </si>
+  <si>
+    <t>NCT03477344</t>
+  </si>
+  <si>
+    <t>NCT04362800</t>
+  </si>
+  <si>
+    <t>NCT02008552</t>
+  </si>
+  <si>
+    <t>NCT03160365</t>
+  </si>
+  <si>
+    <t>NCT02486965</t>
+  </si>
+  <si>
+    <t>NCT03930966</t>
+  </si>
+  <si>
+    <t>NCT04341753</t>
+  </si>
+  <si>
+    <t>NCT04017871</t>
+  </si>
+  <si>
+    <t>NCT04821440</t>
+  </si>
+  <si>
     <t>NCT04736511</t>
   </si>
   <si>
-    <t>NCT04362800</t>
-  </si>
-  <si>
-    <t>NCT03160365</t>
-  </si>
-  <si>
-    <t>NCT02486965</t>
-  </si>
-  <si>
-    <t>NCT04206826</t>
-  </si>
-  <si>
-    <t>NCT03930966</t>
-  </si>
-  <si>
-    <t>NCT02008552</t>
-  </si>
-  <si>
-    <t>NCT04341753</t>
-  </si>
-  <si>
-    <t>NCT04017871</t>
-  </si>
-  <si>
-    <t>NCT03477344</t>
+    <t>NCT02410304</t>
+  </si>
+  <si>
+    <t>NCT03801304</t>
   </si>
   <si>
     <t>NCT04727879</t>
   </si>
   <si>
+    <t>NCT04506125</t>
+  </si>
+  <si>
     <t>NCT04180436</t>
   </si>
   <si>
@@ -295,45 +316,57 @@
     <t>NCT03886064</t>
   </si>
   <si>
-    <t>NCT04506125</t>
-  </si>
-  <si>
-    <t>NCT03801304</t>
-  </si>
-  <si>
-    <t>NCT02410304</t>
+    <t>NCT04027101</t>
   </si>
   <si>
     <t>NCT03285438</t>
   </si>
   <si>
+    <t>NCT03611036</t>
+  </si>
+  <si>
     <t>NCT04181710</t>
   </si>
   <si>
-    <t>NCT04027101</t>
+    <t>NCT04253275</t>
+  </si>
+  <si>
+    <t>NCT04848194</t>
+  </si>
+  <si>
+    <t>NCT04684966</t>
   </si>
   <si>
     <t>NCT04609956</t>
   </si>
   <si>
+    <t>NCT06669845</t>
+  </si>
+  <si>
+    <t>NCT04179539</t>
+  </si>
+  <si>
+    <t>NCT05775562</t>
+  </si>
+  <si>
     <t>NCT03461900</t>
   </si>
   <si>
-    <t>NCT04253275</t>
-  </si>
-  <si>
-    <t>NCT04179539</t>
-  </si>
-  <si>
-    <t>NCT05775562</t>
-  </si>
-  <si>
-    <t>NCT04848194</t>
+    <t>NCT04200196</t>
   </si>
   <si>
     <t>NCT00744900</t>
   </si>
   <si>
+    <t>2015-000107-94</t>
+  </si>
+  <si>
+    <t>2014-000311-13</t>
+  </si>
+  <si>
+    <t>2024-518293-13-01</t>
+  </si>
+  <si>
     <t>2005</t>
   </si>
   <si>
@@ -394,15 +427,15 @@
     <t>Oral Vinorelbine and Cisplatin and Concurrent Radiotherapy After Induction Chemotherapy With Cisplatin-docetaxel in Patients With Locally Advanced Non-small-cell Lung Cancer. A Multicenter Phase II Trial</t>
   </si>
   <si>
+    <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
+  </si>
+  <si>
+    <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
+  </si>
+  <si>
     <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
   </si>
   <si>
-    <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
-  </si>
-  <si>
-    <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
-  </si>
-  <si>
     <t>Impact of Systematic Infants Vaccination Against Rotavirus on Gastroenteritis Hospitalization: a Prospective Study in Brest District, France.</t>
   </si>
   <si>
@@ -412,198 +445,219 @@
     <t>Breastfeeding Versus Saccharose for Prevention of the Procedural Pain in the Newborn</t>
   </si>
   <si>
+    <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
+  </si>
+  <si>
     <t>Tolerance and Efficacy of Rituximab in Sjogren's Disease</t>
   </si>
   <si>
-    <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
-  </si>
-  <si>
     <t>Phase 3 Study Comparison of Autologous Chondrocyte Implantation Versus Mosaicoplasty</t>
   </si>
   <si>
+    <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
+  </si>
+  <si>
+    <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
+  </si>
+  <si>
     <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
   </si>
   <si>
-    <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
-  </si>
-  <si>
-    <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
+    <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
   </si>
   <si>
     <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
   </si>
   <si>
-    <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
-  </si>
-  <si>
     <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
   </si>
   <si>
+    <t>Pilot Study of the ANI (Analgesia Nociception Index) Validity on the Nociception Assessment in Healthy Volunteers in State of Hypnosis, Compared to Painful Numerical Verbal Scale (EVN).</t>
+  </si>
+  <si>
     <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
   </si>
   <si>
     <t>Evaluation of Local Anesthesia Before Arterial Puncture for Blood Gas Analysis Randomized, Control Placebo Study</t>
   </si>
   <si>
-    <t>Pilot Study of the ANI (Analgesia Nociception Index) Validity on the Nociception Assessment in Healthy Volunteers in State of Hypnosis, Compared to Painful Numerical Verbal Scale (EVN).</t>
+    <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
+  </si>
+  <si>
+    <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
+  </si>
+  <si>
+    <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
+  </si>
+  <si>
+    <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
+  </si>
+  <si>
+    <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
   </si>
   <si>
     <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
   </si>
   <si>
-    <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
-  </si>
-  <si>
-    <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
-  </si>
-  <si>
-    <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
-  </si>
-  <si>
-    <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
-  </si>
-  <si>
-    <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
-  </si>
-  <si>
     <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
   </si>
   <si>
+    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
+  </si>
+  <si>
+    <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
+  </si>
+  <si>
     <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
   </si>
   <si>
+    <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
+  </si>
+  <si>
+    <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
+  </si>
+  <si>
     <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
   </si>
   <si>
-    <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
-  </si>
-  <si>
-    <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
-  </si>
-  <si>
-    <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
-  </si>
-  <si>
-    <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
-  </si>
-  <si>
-    <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
+    <t>Medical and Economical Evaluation of Upper Limb's Rehabilitation Robotics After a Stroke</t>
+  </si>
+  <si>
+    <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
   </si>
   <si>
     <t>Tourniquets Type Combat Application Tourniquet (CAT): Vascular Suffering According to the Proximal or Distal Location, Simple or Staggered. Study to Upper and Lower Limbs</t>
   </si>
   <si>
-    <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
+    <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
+  </si>
+  <si>
+    <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
+  </si>
+  <si>
+    <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
+  </si>
+  <si>
+    <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
   </si>
   <si>
     <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
   </si>
   <si>
-    <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
-  </si>
-  <si>
-    <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
-  </si>
-  <si>
-    <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
-  </si>
-  <si>
     <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
   </si>
   <si>
-    <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
-  </si>
-  <si>
     <t>ULnar Nerve ECHographic Observation (ULNECHO)</t>
   </si>
   <si>
+    <t>Interest of the Not Invasive Ventilation Used in Meadow and Post-operative of Cardiac Surgery, in Disease Prevention of the Cardiac and/or Lung Complications at the Patients at Risk.</t>
+  </si>
+  <si>
+    <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
+  </si>
+  <si>
+    <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
+  </si>
+  <si>
+    <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
+  </si>
+  <si>
+    <t>Short Message System (SMS) Monitoring Intended for the Suicidal Patients: Study of Efficiency</t>
+  </si>
+  <si>
+    <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
+  </si>
+  <si>
+    <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
+  </si>
+  <si>
+    <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
+  </si>
+  <si>
+    <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
+  </si>
+  <si>
+    <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
+  </si>
+  <si>
+    <t>Connected Sleep Recording Device for Suicidal Patients, Acceptability Study - Suicide Sleep Monitoring (Ssleem)</t>
+  </si>
+  <si>
     <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
   </si>
   <si>
     <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa: An Implementation Research</t>
   </si>
   <si>
-    <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
-  </si>
-  <si>
-    <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
-  </si>
-  <si>
-    <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
-  </si>
-  <si>
-    <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
-  </si>
-  <si>
-    <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
-  </si>
-  <si>
-    <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
-  </si>
-  <si>
-    <t>Connected Sleep Recording Device for Suicidal Patients, Acceptability Study - Suicide Sleep Monitoring (Ssleem)</t>
-  </si>
-  <si>
-    <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
-  </si>
-  <si>
-    <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
+    <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
+  </si>
+  <si>
+    <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
+  </si>
+  <si>
+    <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
   </si>
   <si>
     <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
   </si>
   <si>
-    <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
-  </si>
-  <si>
-    <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
-  </si>
-  <si>
     <t>Safety and Efficacy of tocilizuMAb Versus Placebo in Polymyalgia rHeumatica With glucocORticoid dEpendence SEMAPHORE</t>
   </si>
   <si>
-    <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
-  </si>
-  <si>
     <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
+  </si>
+  <si>
+    <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
+  </si>
+  <si>
+    <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
+  </si>
+  <si>
+    <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
+  </si>
+  <si>
+    <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
+  </si>
+  <si>
+    <t>Impact of a Specific Training Program on the Neuromodulation of Pain in Fibromyalgia Subjects</t>
+  </si>
+  <si>
+    <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
+  </si>
+  <si>
+    <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
+  </si>
+  <si>
+    <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>A 3D Tablet Sensor Approach to the Measurement of an Upper and Lower Limb Volume in the Monitoring of a Lymphedema</t>
+  </si>
+  <si>
     <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
   </si>
   <si>
-    <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
-  </si>
-  <si>
-    <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
-  </si>
-  <si>
-    <t>Impact of a Specific Training Program on the Neuromodulation of Pain in Fibromyalgia Subjects</t>
-  </si>
-  <si>
-    <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
-  </si>
-  <si>
-    <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
-  </si>
-  <si>
-    <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
-  </si>
-  <si>
-    <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
-  </si>
-  <si>
-    <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
-  </si>
-  <si>
-    <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
+    <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
+  </si>
+  <si>
+    <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
   </si>
   <si>
     <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
   </si>
   <si>
+    <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
+  </si>
+  <si>
     <t>Pharmacokinetics and Pharmacodynamics of rivAroxaban After Bariatric Surgery and in mORBid Obesity</t>
   </si>
   <si>
@@ -613,40 +667,43 @@
     <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
   </si>
   <si>
-    <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
-  </si>
-  <si>
-    <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
-  </si>
-  <si>
-    <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
+    <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
   </si>
   <si>
     <t>REduced Dose Versus Full-dose of Direct Oral Anticoagulant After uNprOvoked Venous thromboEmbolism. The RENOVE Open-label, Randomized, Controlled Trial.</t>
   </si>
   <si>
+    <t>Effect of Different Form of Upper Limb Muscles Training on Dyspnea in COPD</t>
+  </si>
+  <si>
     <t>Evaluation of a Marine OXYgen Carrier for Organ Preservation : a Multicenter Randomized Study Evaluating the Efficacy of HEMO2life® Versus Standard of Care in Renal Transplantation</t>
   </si>
   <si>
-    <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
+    <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
+  </si>
+  <si>
+    <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
+  </si>
+  <si>
+    <t>Interest of Adding Neuromuscular Electrical Stimulation for Quadriceps Femoris and Triceps Surae Muscles to Pulmonary Rehabilitation in COPD : Randomized Clinical Trial</t>
   </si>
   <si>
     <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
   </si>
   <si>
+    <t>Prospective Study of the Variation in the Angle of Anteflexion of the Uterus Before and After Micturition in Nulliparous Women With Uterine Anteversion.</t>
+  </si>
+  <si>
+    <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
+  </si>
+  <si>
+    <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
+  </si>
+  <si>
     <t>Guided Fluid-balance Optimization With Mini-fluid chALlenge During Septic Shock: A Multicenter, Stepped Wedge Cluster Randomized Trial</t>
   </si>
   <si>
-    <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
-  </si>
-  <si>
-    <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
-  </si>
-  <si>
-    <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
-  </si>
-  <si>
-    <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
+    <t>Improvement of Anxiety Management During a Venous Puncture About Children 3 to 6 Years, with a Participatory Entertainment Method</t>
   </si>
   <si>
     <t>A Phase II Trial With Pemetrexed Plus Cisplatin as First Line Chemotherapy for Advanced Non - Small Cell Lung Cancer (NSCLC) Patients With Measurable Asymptomatic Brain Metastasis (GFPC 07-01/METAL).</t>
@@ -655,15 +712,15 @@
     <t>VINCR</t>
   </si>
   <si>
+    <t>COMBAX</t>
+  </si>
+  <si>
+    <t>BUMEA</t>
+  </si>
+  <si>
     <t>CIREA1</t>
   </si>
   <si>
-    <t>BUMEA</t>
-  </si>
-  <si>
-    <t>COMBAX</t>
-  </si>
-  <si>
     <t>IVANHOE</t>
   </si>
   <si>
@@ -673,30 +730,30 @@
     <t>ACTISUCROSE</t>
   </si>
   <si>
+    <t>STEPPER</t>
+  </si>
+  <si>
     <t>TEARS</t>
   </si>
   <si>
-    <t>STEPPER</t>
-  </si>
-  <si>
     <t>Cartipatch</t>
   </si>
   <si>
+    <t>FreeO2-Hypox</t>
+  </si>
+  <si>
+    <t>MVTEP</t>
+  </si>
+  <si>
     <t>H²O</t>
   </si>
   <si>
-    <t>FreeO2-Hypox</t>
-  </si>
-  <si>
-    <t>MVTEP</t>
+    <t>EVEROLD</t>
   </si>
   <si>
     <t>TENOR</t>
   </si>
   <si>
-    <t>EVEROLD</t>
-  </si>
-  <si>
     <t>SAVE</t>
   </si>
   <si>
@@ -706,156 +763,174 @@
     <t>GAEL</t>
   </si>
   <si>
+    <t>PREPINTEST</t>
+  </si>
+  <si>
+    <t>EMI II</t>
+  </si>
+  <si>
+    <t>BOLUS</t>
+  </si>
+  <si>
+    <t>PapU-APV</t>
+  </si>
+  <si>
+    <t>HSCL25</t>
+  </si>
+  <si>
+    <t>EROD</t>
+  </si>
+  <si>
     <t>PADIS EP</t>
   </si>
   <si>
-    <t>EMI II</t>
-  </si>
-  <si>
-    <t>HSCL25</t>
-  </si>
-  <si>
-    <t>BOLUS</t>
-  </si>
-  <si>
-    <t>PapU-APV</t>
-  </si>
-  <si>
-    <t>PREPINTEST</t>
-  </si>
-  <si>
-    <t>EROD</t>
-  </si>
-  <si>
     <t>PEP</t>
   </si>
   <si>
+    <t>PADIS TVP</t>
+  </si>
+  <si>
+    <t>préOVNI</t>
+  </si>
+  <si>
+    <t>Infant-Free02</t>
+  </si>
+  <si>
     <t>DACODEC</t>
   </si>
   <si>
+    <t>SENSISKIN</t>
+  </si>
+  <si>
+    <t>ESPER</t>
+  </si>
+  <si>
     <t>ARC36</t>
   </si>
   <si>
-    <t>SENSISKIN</t>
-  </si>
-  <si>
-    <t>préOVNI</t>
-  </si>
-  <si>
-    <t>PADIS TVP</t>
-  </si>
-  <si>
-    <t>Infant-Free02</t>
-  </si>
-  <si>
-    <t>ESPER</t>
+    <t>REM_AVC</t>
+  </si>
+  <si>
+    <t>Fix-IOT</t>
   </si>
   <si>
     <t>GARROTS</t>
   </si>
   <si>
-    <t>Fix-IOT</t>
+    <t>MOHPI</t>
+  </si>
+  <si>
+    <t>CP-ICU</t>
+  </si>
+  <si>
+    <t>SENSILED</t>
   </si>
   <si>
     <t>FreeO2PostOp</t>
   </si>
   <si>
-    <t>CP-ICU</t>
-  </si>
-  <si>
-    <t>SENSILED</t>
-  </si>
-  <si>
     <t>PADH2</t>
   </si>
   <si>
-    <t>MOHPI</t>
-  </si>
-  <si>
     <t>ULNECHO</t>
   </si>
   <si>
+    <t>CAPVNI</t>
+  </si>
+  <si>
+    <t>PRURI-MUSIC</t>
+  </si>
+  <si>
+    <t>MIPEN</t>
+  </si>
+  <si>
+    <t>C-SIAM</t>
+  </si>
+  <si>
+    <t>ESNM</t>
+  </si>
+  <si>
+    <t>CamOpt</t>
+  </si>
+  <si>
+    <t>WINDSURF</t>
+  </si>
+  <si>
+    <t>DA-TRPM8</t>
+  </si>
+  <si>
+    <t>PASEP</t>
+  </si>
+  <si>
+    <t>SSLEEM</t>
+  </si>
+  <si>
     <t>RCOOL</t>
   </si>
   <si>
     <t>SPICES_PHASE_1</t>
   </si>
   <si>
-    <t>ESNM</t>
-  </si>
-  <si>
-    <t>WINDSURF</t>
-  </si>
-  <si>
-    <t>DA-TRPM8</t>
-  </si>
-  <si>
-    <t>C-SIAM</t>
-  </si>
-  <si>
-    <t>CamOpt</t>
-  </si>
-  <si>
-    <t>PRURI-MUSIC</t>
-  </si>
-  <si>
-    <t>SSLEEM</t>
-  </si>
-  <si>
-    <t>PASEP</t>
-  </si>
-  <si>
-    <t>MIPEN</t>
+    <t>SYMPTOMS</t>
+  </si>
+  <si>
+    <t>EPOLTEST</t>
+  </si>
+  <si>
+    <t>DOUMU1</t>
   </si>
   <si>
     <t>GeneQuest</t>
   </si>
   <si>
-    <t>SYMPTOMS</t>
-  </si>
-  <si>
-    <t>DOUMU1</t>
-  </si>
-  <si>
-    <t>EPOLTEST</t>
-  </si>
-  <si>
     <t>PARTO-MAP</t>
   </si>
   <si>
+    <t>PREDELFI</t>
+  </si>
+  <si>
+    <t>EXACTUM</t>
+  </si>
+  <si>
+    <t>MOOV</t>
+  </si>
+  <si>
+    <t>MEDIAGENE</t>
+  </si>
+  <si>
+    <t>FOCUS</t>
+  </si>
+  <si>
+    <t>DOUFISPORT</t>
+  </si>
+  <si>
+    <t>DIStress-AG</t>
+  </si>
+  <si>
+    <t>FORMES</t>
+  </si>
+  <si>
+    <t>HABIT-ILE</t>
+  </si>
+  <si>
+    <t>LO3D</t>
+  </si>
+  <si>
     <t>NEURIBIO</t>
   </si>
   <si>
-    <t>MOOV</t>
-  </si>
-  <si>
-    <t>FOCUS</t>
-  </si>
-  <si>
-    <t>DOUFISPORT</t>
-  </si>
-  <si>
-    <t>PREDELFI</t>
-  </si>
-  <si>
-    <t>DIStress-AG</t>
-  </si>
-  <si>
-    <t>MEDIAGENE</t>
-  </si>
-  <si>
-    <t>FORMES</t>
-  </si>
-  <si>
-    <t>HABIT-ILE</t>
-  </si>
-  <si>
-    <t>EXACTUM</t>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>VinMetAtezo</t>
   </si>
   <si>
     <t>BAOBAB</t>
   </si>
   <si>
+    <t>LIBERTY1</t>
+  </si>
+  <si>
     <t>ABSORB</t>
   </si>
   <si>
@@ -865,40 +940,43 @@
     <t>Spices_phase_2</t>
   </si>
   <si>
-    <t>LIBERTY1</t>
-  </si>
-  <si>
-    <t>VinMetAtezo</t>
-  </si>
-  <si>
-    <t>BCD</t>
+    <t>BACHELOR</t>
   </si>
   <si>
     <t>RENOVE</t>
   </si>
   <si>
+    <t>REHABSUP</t>
+  </si>
+  <si>
     <t>OXYOP 2</t>
   </si>
   <si>
-    <t>BACHELOR</t>
+    <t>IBIS-CT</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>COMBIELEC</t>
   </si>
   <si>
     <t>VIDAMO</t>
   </si>
   <si>
+    <t>FLEXIMIX</t>
+  </si>
+  <si>
+    <t>PETEP</t>
+  </si>
+  <si>
+    <t>SPIDD</t>
+  </si>
+  <si>
     <t>GOAL</t>
   </si>
   <si>
-    <t>IBIS-CT</t>
-  </si>
-  <si>
-    <t>PETEP</t>
-  </si>
-  <si>
-    <t>SPIDD</t>
-  </si>
-  <si>
-    <t>TRIP</t>
+    <t>PEDIPAIN</t>
   </si>
   <si>
     <t>GFPC 07-01</t>
@@ -917,9 +995,6 @@
   </si>
   <si>
     <t>OTHER</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -1283,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1349,13 +1424,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1369,16 +1444,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1392,16 +1467,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1415,16 +1490,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1438,16 +1513,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1461,16 +1536,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1484,16 +1559,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1507,62 +1582,62 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I12" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1576,39 +1651,39 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1622,85 +1697,85 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I18" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1714,16 +1789,16 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="I19" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1737,82 +1812,82 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="H22" t="s">
+        <v>248</v>
       </c>
       <c r="I22" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1826,16 +1901,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1849,16 +1924,16 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1872,16 +1947,16 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="I26" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1895,62 +1970,62 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="I29" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1964,85 +2039,85 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2056,39 +2131,39 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2101,63 +2176,66 @@
       <c r="C36" t="s">
         <v>51</v>
       </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2171,39 +2249,39 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2217,13 +2295,13 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2237,16 +2315,16 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2260,16 +2338,16 @@
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2283,39 +2361,39 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2329,16 +2407,16 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2352,16 +2430,16 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2375,39 +2453,39 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2421,16 +2499,16 @@
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="I50" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2444,85 +2522,82 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="I53" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G54" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="I54" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2536,16 +2611,16 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2559,16 +2634,16 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I56" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2582,39 +2657,39 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2628,16 +2703,16 @@
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="I59" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2651,36 +2726,42 @@
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="I60" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G61" t="s">
-        <v>182</v>
+        <v>193</v>
+      </c>
+      <c r="H61" t="s">
+        <v>285</v>
       </c>
       <c r="I61" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2694,16 +2775,16 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="I62" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2717,62 +2798,59 @@
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H64" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="I64" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="I65" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2786,62 +2864,62 @@
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G66" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="I66" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="I67" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="I68" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2855,16 +2933,16 @@
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G69" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H69" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="I69" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2878,16 +2956,16 @@
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2901,16 +2979,16 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="I71" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2924,39 +3002,39 @@
         <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="I72" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="I73" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2970,108 +3048,108 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="I74" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G75" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="I75" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="I76" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="I77" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="I78" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3085,16 +3163,16 @@
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H79" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="I79" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3108,39 +3186,39 @@
         <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H80" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="I80" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="I81" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3154,62 +3232,62 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H82" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="I82" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="I83" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="I84" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3223,16 +3301,16 @@
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G85" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="I85" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3246,39 +3324,39 @@
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G86" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H86" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G87" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H87" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="I87" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3292,16 +3370,16 @@
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="I88" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3315,16 +3393,16 @@
         <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G89" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H89" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="I89" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3337,14 +3415,201 @@
       <c r="C90" t="s">
         <v>105</v>
       </c>
+      <c r="F90" t="s">
+        <v>133</v>
+      </c>
       <c r="G90" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="I90" t="s">
-        <v>297</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" t="s">
+        <v>314</v>
+      </c>
+      <c r="I91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" t="s">
+        <v>224</v>
+      </c>
+      <c r="H92" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" t="s">
+        <v>316</v>
+      </c>
+      <c r="I93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" t="s">
+        <v>318</v>
+      </c>
+      <c r="I95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" t="s">
+        <v>228</v>
+      </c>
+      <c r="H96" t="s">
+        <v>319</v>
+      </c>
+      <c r="I96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>229</v>
+      </c>
+      <c r="H97" t="s">
+        <v>320</v>
+      </c>
+      <c r="I97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" t="s">
+        <v>230</v>
+      </c>
+      <c r="H98" t="s">
+        <v>321</v>
+      </c>
+      <c r="I98" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
